--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.958724246172</v>
+        <v>267.5883388184834</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.4842539399772</v>
+        <v>366.126170335792</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.283651458788</v>
+        <v>331.1836025002507</v>
       </c>
       <c r="AD2" t="n">
-        <v>215958.724246172</v>
+        <v>267588.3388184834</v>
       </c>
       <c r="AE2" t="n">
-        <v>295484.2539399772</v>
+        <v>366126.1703357921</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.696767008470807e-06</v>
+        <v>3.88783302955141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>267283.651458788</v>
+        <v>331183.6025002507</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.3427142463708</v>
+        <v>192.4242123692161</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.3372901673503</v>
+        <v>263.2832965205556</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.8356259830245</v>
+        <v>238.1559082211382</v>
       </c>
       <c r="AD3" t="n">
-        <v>149342.7142463708</v>
+        <v>192424.2123692161</v>
       </c>
       <c r="AE3" t="n">
-        <v>204337.2901673503</v>
+        <v>263283.2965205556</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.524089267608096e-06</v>
+        <v>5.080554089640669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>184835.6259830245</v>
+        <v>238155.9082211382</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.3772583197108</v>
+        <v>158.9107295016443</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.1784519703286</v>
+        <v>217.428670750651</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.9368593612851</v>
+        <v>196.6775835773271</v>
       </c>
       <c r="AD4" t="n">
-        <v>124377.2583197108</v>
+        <v>158910.7295016444</v>
       </c>
       <c r="AE4" t="n">
-        <v>170178.4519703286</v>
+        <v>217428.670750651</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.002951983206e-06</v>
+        <v>5.770913426014302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.592592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>153936.8593612851</v>
+        <v>196677.5835773271</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.4386881122639</v>
+        <v>144.338881007265</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.0530382212766</v>
+        <v>197.4908247760667</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.5869236963502</v>
+        <v>178.6425776396083</v>
       </c>
       <c r="AD5" t="n">
-        <v>118438.6881122639</v>
+        <v>144338.881007265</v>
       </c>
       <c r="AE5" t="n">
-        <v>162053.0382212765</v>
+        <v>197490.8247760667</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.188709542437168e-06</v>
+        <v>6.038713488830002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>146586.9236963502</v>
+        <v>178642.5776396083</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.2536778456331</v>
+        <v>140.1538707406342</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.3269225448527</v>
+        <v>191.7647090996429</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.4073004634286</v>
+        <v>173.4629544066867</v>
       </c>
       <c r="AD6" t="n">
-        <v>114253.6778456331</v>
+        <v>140153.8707406342</v>
       </c>
       <c r="AE6" t="n">
-        <v>156326.9225448527</v>
+        <v>191764.7090996429</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299418316782461e-06</v>
+        <v>6.198318389145381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>141407.3004634286</v>
+        <v>173462.9544066867</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.1057667157827</v>
+        <v>140.0059596107838</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.124544011613</v>
+        <v>191.5623305664032</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.2242366533612</v>
+        <v>173.2798905966193</v>
       </c>
       <c r="AD7" t="n">
-        <v>114105.7667157827</v>
+        <v>140005.9596107838</v>
       </c>
       <c r="AE7" t="n">
-        <v>156124.544011613</v>
+        <v>191562.3305664032</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.293956403816659e-06</v>
+        <v>6.190444143589025e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.077546296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>141224.2366533612</v>
+        <v>173279.8905966193</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.68861697903</v>
+        <v>208.7757347540446</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.0707195333829</v>
+        <v>285.6561708257221</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.3039701604478</v>
+        <v>258.393546803153</v>
       </c>
       <c r="AD2" t="n">
-        <v>166688.61697903</v>
+        <v>208775.7347540446</v>
       </c>
       <c r="AE2" t="n">
-        <v>228070.7195333829</v>
+        <v>285656.1708257221</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.177517693767152e-06</v>
+        <v>4.651766368786765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>206303.9701604478</v>
+        <v>258393.546803153</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.754813357075</v>
+        <v>154.4245075770867</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.2220629614599</v>
+        <v>211.2904239953313</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.4535011630856</v>
+        <v>191.1251624772498</v>
       </c>
       <c r="AD3" t="n">
-        <v>120754.813357075</v>
+        <v>154424.5075770867</v>
       </c>
       <c r="AE3" t="n">
-        <v>165222.0629614599</v>
+        <v>211290.4239953313</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027666393833295e-06</v>
+        <v>5.896352083979722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.806712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>149453.5011630856</v>
+        <v>191125.1624772498</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.0666829703026</v>
+        <v>137.3190431438624</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.3345796730226</v>
+        <v>187.8859729179746</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.7005425955054</v>
+        <v>169.9543993623551</v>
       </c>
       <c r="AD4" t="n">
-        <v>112066.6829703026</v>
+        <v>137319.0431438624</v>
       </c>
       <c r="AE4" t="n">
-        <v>153334.5796730226</v>
+        <v>187885.9729179745</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.338757361150443e-06</v>
+        <v>6.351777557215591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.24537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>138700.5425955054</v>
+        <v>169954.3993623551</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.2674186722958</v>
+        <v>133.5197788458556</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.136258648781</v>
+        <v>182.6876518937329</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.9983420339264</v>
+        <v>165.2521988007761</v>
       </c>
       <c r="AD5" t="n">
-        <v>108267.4186722958</v>
+        <v>133519.7788458556</v>
       </c>
       <c r="AE5" t="n">
-        <v>148136.258648781</v>
+        <v>182687.6518937329</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.460455539074022e-06</v>
+        <v>6.529939111537691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>133998.3420339264</v>
+        <v>165252.1988007761</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.9346151478854</v>
+        <v>129.0037700848444</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.9984610155706</v>
+        <v>176.508649474675</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2098359643015</v>
+        <v>159.6629117003068</v>
       </c>
       <c r="AD2" t="n">
-        <v>97934.6151478854</v>
+        <v>129003.7700848444</v>
       </c>
       <c r="AE2" t="n">
-        <v>133998.4610155706</v>
+        <v>176508.649474675</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589710904163605e-06</v>
+        <v>7.100849290137354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.644675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>121209.8359643015</v>
+        <v>159662.9117003068</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.31711109290295</v>
+        <v>116.6190668041732</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.680588257645</v>
+        <v>159.5633520715217</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.4949321152002</v>
+        <v>144.3348496984307</v>
       </c>
       <c r="AD3" t="n">
-        <v>93317.11109290295</v>
+        <v>116619.0668041732</v>
       </c>
       <c r="AE3" t="n">
-        <v>127680.588257645</v>
+        <v>159563.3520715217</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876158624644572e-06</v>
+        <v>7.544019270798566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.193287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>115494.9321152002</v>
+        <v>144334.8496984307</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.7260568005133</v>
+        <v>151.7266675014706</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8144728552367</v>
+        <v>207.5991201835711</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.1802494810348</v>
+        <v>187.7861515205054</v>
       </c>
       <c r="AD2" t="n">
-        <v>119726.0568005133</v>
+        <v>151726.6675014706</v>
       </c>
       <c r="AE2" t="n">
-        <v>163814.4728552367</v>
+        <v>207599.1201835711</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.135934318472623e-06</v>
+        <v>6.250612589369316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.113425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>148180.2494810348</v>
+        <v>187786.1515205054</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.10241077043683</v>
+        <v>122.1668968142213</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.2280463889658</v>
+        <v>167.1541378442519</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.417510031885</v>
+        <v>151.2011815307487</v>
       </c>
       <c r="AD3" t="n">
-        <v>98102.41077043684</v>
+        <v>122166.8968142213</v>
       </c>
       <c r="AE3" t="n">
-        <v>134228.0463889658</v>
+        <v>167154.1378442519</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.769608660649112e-06</v>
+        <v>7.208280800655466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.037037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>121417.510031885</v>
+        <v>151201.1815307487</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.37548760934314</v>
+        <v>122.4399736531276</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.6016821672571</v>
+        <v>167.5277736225432</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.7554865358974</v>
+        <v>151.5391580347612</v>
       </c>
       <c r="AD4" t="n">
-        <v>98375.48760934314</v>
+        <v>122439.9736531276</v>
       </c>
       <c r="AE4" t="n">
-        <v>134601.6821672571</v>
+        <v>167527.7736225432</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767114793111715e-06</v>
+        <v>7.204511833688112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>121755.4865358974</v>
+        <v>151539.1580347611</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.14331786387316</v>
+        <v>119.2079722118452</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.9698202269276</v>
+        <v>163.1056066647424</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.3291917702194</v>
+        <v>147.5390364848611</v>
       </c>
       <c r="AD2" t="n">
-        <v>89143.31786387316</v>
+        <v>119207.9722118452</v>
       </c>
       <c r="AE2" t="n">
-        <v>121969.8202269276</v>
+        <v>163105.6066647424</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.912497289363613e-06</v>
+        <v>7.76414296842943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>110329.1917702194</v>
+        <v>147539.0364848611</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.9671250509124</v>
+        <v>224.252786967093</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.9754483175267</v>
+        <v>306.8325564629583</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.2135809694107</v>
+        <v>277.548887916422</v>
       </c>
       <c r="AD2" t="n">
-        <v>181967.1250509124</v>
+        <v>224252.786967093</v>
       </c>
       <c r="AE2" t="n">
-        <v>248975.4483175267</v>
+        <v>306832.5564629583</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.05895128340987e-06</v>
+        <v>4.459603134522253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>225213.5809694107</v>
+        <v>277548.887916422</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.6850216156353</v>
+        <v>166.8852531686931</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.5995472893705</v>
+        <v>228.3397658430561</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.3177659340888</v>
+        <v>206.5473390679348</v>
       </c>
       <c r="AD3" t="n">
-        <v>124685.0216156353</v>
+        <v>166885.2531686931</v>
       </c>
       <c r="AE3" t="n">
-        <v>170599.5472893705</v>
+        <v>228339.7658430561</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919446221478948e-06</v>
+        <v>5.714106906408314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>154317.7659340888</v>
+        <v>206547.3390679348</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.4411278721081</v>
+        <v>149.1672662812767</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.9516440576729</v>
+        <v>204.0972345212907</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.8769608353768</v>
+        <v>184.6184809109046</v>
       </c>
       <c r="AD4" t="n">
-        <v>115441.1278721081</v>
+        <v>149167.2662812767</v>
       </c>
       <c r="AE4" t="n">
-        <v>157951.6440576729</v>
+        <v>204097.2345212908</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.248040928464029e-06</v>
+        <v>6.193160624329764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.332175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>142876.9608353768</v>
+        <v>184618.4809109046</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.6774955081069</v>
+        <v>135.1001329739786</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.0655879837362</v>
+        <v>184.8499621321331</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.7435388849849</v>
+        <v>167.2081411848456</v>
       </c>
       <c r="AD5" t="n">
-        <v>109677.4955081069</v>
+        <v>135100.1329739786</v>
       </c>
       <c r="AE5" t="n">
-        <v>150065.5879837362</v>
+        <v>184849.9621321331</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.425933262050579e-06</v>
+        <v>6.452507418367529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.037037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>135743.5388849849</v>
+        <v>167208.1411848456</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.702968819029</v>
+        <v>135.1256062849007</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.1004416915431</v>
+        <v>184.88481583994</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.7750662038362</v>
+        <v>167.2396685036969</v>
       </c>
       <c r="AD6" t="n">
-        <v>109702.968819029</v>
+        <v>135125.6062849007</v>
       </c>
       <c r="AE6" t="n">
-        <v>150100.4416915431</v>
+        <v>184884.81583994</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.425717896029288e-06</v>
+        <v>6.452193439197993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>135775.0662038361</v>
+        <v>167239.6685036969</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.39852144479806</v>
+        <v>117.1399693689728</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5825127913649</v>
+        <v>160.2760739412794</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.169725605699</v>
+        <v>144.9795503932505</v>
       </c>
       <c r="AD2" t="n">
-        <v>87398.52144479807</v>
+        <v>117139.9693689728</v>
       </c>
       <c r="AE2" t="n">
-        <v>119582.5127913649</v>
+        <v>160276.0739412794</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857509262715902e-06</v>
+        <v>7.782870856517413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>108169.725605699</v>
+        <v>144979.5503932505</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.074078304076</v>
+        <v>179.1548015593683</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.9190453339787</v>
+        <v>245.1275032454419</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.8888767969024</v>
+        <v>221.7328783743797</v>
       </c>
       <c r="AD2" t="n">
-        <v>138074.078304076</v>
+        <v>179154.8015593683</v>
       </c>
       <c r="AE2" t="n">
-        <v>188919.0453339787</v>
+        <v>245127.5032454419</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606830651105555e-06</v>
+        <v>5.35557795549215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.981481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>170888.8767969024</v>
+        <v>221732.8783743797</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7413687871182</v>
+        <v>141.5036278744172</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.784738105084</v>
+        <v>193.6115063571659</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.5849315210667</v>
+        <v>175.1334959259486</v>
       </c>
       <c r="AD3" t="n">
-        <v>108741.3687871182</v>
+        <v>141503.6278744172</v>
       </c>
       <c r="AE3" t="n">
-        <v>148784.738105084</v>
+        <v>193611.5063571659</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.405276098569972e-06</v>
+        <v>6.541144246438686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.355324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>134584.9315210667</v>
+        <v>175133.4959259485</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.3409422531054</v>
+        <v>128.0406702275748</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.3956362712475</v>
+        <v>175.1908937609925</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.9010351955797</v>
+        <v>158.4709207424559</v>
       </c>
       <c r="AD4" t="n">
-        <v>103340.9422531054</v>
+        <v>128040.6702275748</v>
       </c>
       <c r="AE4" t="n">
-        <v>141395.6362712475</v>
+        <v>175190.8937609924</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.611660588530803e-06</v>
+        <v>6.847592852350062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.025462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>127901.0351955797</v>
+        <v>158470.9207424559</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5091962464549</v>
+        <v>201.3017268546878</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2475193533897</v>
+        <v>275.4299034878699</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.418282418682</v>
+        <v>249.1432600673658</v>
       </c>
       <c r="AD2" t="n">
-        <v>159509.1962464549</v>
+        <v>201301.7268546878</v>
       </c>
       <c r="AE2" t="n">
-        <v>218247.5193533897</v>
+        <v>275429.9034878699</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.31442856373801e-06</v>
+        <v>4.873676554202155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.577546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>197418.282418682</v>
+        <v>249143.2600673658</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.854824566139</v>
+        <v>150.2888490527254</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.8859262423415</v>
+        <v>205.6318335499257</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.6266378431233</v>
+        <v>186.0066199620704</v>
       </c>
       <c r="AD3" t="n">
-        <v>116854.824566139</v>
+        <v>150288.8490527254</v>
       </c>
       <c r="AE3" t="n">
-        <v>159885.9262423415</v>
+        <v>205631.8335499257</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.139196513524418e-06</v>
+        <v>6.08645038300299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.667824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>144626.6378431233</v>
+        <v>186006.6199620704</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.1988664574449</v>
+        <v>133.2744743309357</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.0424624841117</v>
+        <v>182.3520154343483</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.9134976435694</v>
+        <v>164.9485950140063</v>
       </c>
       <c r="AD4" t="n">
-        <v>108198.8664574449</v>
+        <v>133274.4743309357</v>
       </c>
       <c r="AE4" t="n">
-        <v>148042.4624841117</v>
+        <v>182352.0154343483</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464211467004553e-06</v>
+        <v>6.564366176956557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.112268518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>133913.4976435694</v>
+        <v>164948.5950140062</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.76223855704369</v>
+        <v>131.1109221890584</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.7626077592626</v>
+        <v>179.3917479446492</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.9964922117534</v>
+        <v>162.2708512987616</v>
       </c>
       <c r="AD5" t="n">
-        <v>97762.23855704369</v>
+        <v>131110.9221890584</v>
       </c>
       <c r="AE5" t="n">
-        <v>133762.6077592626</v>
+        <v>179391.7479446492</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.536223723825244e-06</v>
+        <v>6.670256058404589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.996527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>120996.4922117534</v>
+        <v>162270.8512987616</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.9988902411359</v>
+        <v>250.4055206365386</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.2790608392286</v>
+        <v>342.615880446656</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.2931294188743</v>
+        <v>309.9171016813376</v>
       </c>
       <c r="AD2" t="n">
-        <v>198998.8902411359</v>
+        <v>250405.5206365386</v>
       </c>
       <c r="AE2" t="n">
-        <v>272279.0608392286</v>
+        <v>342615.880446656</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.80254978114395e-06</v>
+        <v>4.054651971920321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.93171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>246293.1294188743</v>
+        <v>309917.1016813376</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8305231996135</v>
+        <v>177.0732526869091</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.4270230795889</v>
+        <v>242.2794362466896</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.7757422804777</v>
+        <v>219.1566268927002</v>
       </c>
       <c r="AD3" t="n">
-        <v>142830.5231996135</v>
+        <v>177073.2526869091</v>
       </c>
       <c r="AE3" t="n">
-        <v>195427.0230795889</v>
+        <v>242279.4362466896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673013061297898e-06</v>
+        <v>5.314014313708872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.33912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>176775.7422804777</v>
+        <v>219156.6268927002</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.0131422566281</v>
+        <v>154.1705308893521</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.2072758416092</v>
+        <v>210.9429218865124</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.5355639016905</v>
+        <v>190.8108254819742</v>
       </c>
       <c r="AD4" t="n">
-        <v>120013.1422566281</v>
+        <v>154170.5308893521</v>
       </c>
       <c r="AE4" t="n">
-        <v>164207.2758416092</v>
+        <v>210942.9218865124</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.130399349720333e-06</v>
+        <v>5.975748220724202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>148535.5639016905</v>
+        <v>190810.8254819742</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.1781976248944</v>
+        <v>140.9242727584326</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.5918912937715</v>
+        <v>192.8188071281324</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.5515423703458</v>
+        <v>174.4164507987734</v>
       </c>
       <c r="AD5" t="n">
-        <v>115178.1976248944</v>
+        <v>140924.2727584326</v>
       </c>
       <c r="AE5" t="n">
-        <v>157591.8912937714</v>
+        <v>192818.8071281324</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.283496704595066e-06</v>
+        <v>6.197245264600166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>142551.5423703458</v>
+        <v>174416.4507987734</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.3360788443779</v>
+        <v>138.0821539779162</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.7031789928395</v>
+        <v>188.9300948272003</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.0339633135715</v>
+        <v>170.8988717419991</v>
       </c>
       <c r="AD6" t="n">
-        <v>112336.0788443779</v>
+        <v>138082.1539779162</v>
       </c>
       <c r="AE6" t="n">
-        <v>153703.1789928395</v>
+        <v>188930.0948272003</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.351098821529725e-06</v>
+        <v>6.295050148773614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>139033.9633135715</v>
+        <v>170898.8717419991</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9063944480979</v>
+        <v>158.2043800348726</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.2706834819116</v>
+        <v>216.4622122482752</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8294112338687</v>
+        <v>195.8033625179848</v>
       </c>
       <c r="AD2" t="n">
-        <v>125906.3944480979</v>
+        <v>158204.3800348726</v>
       </c>
       <c r="AE2" t="n">
-        <v>172270.6834819116</v>
+        <v>216462.2122482752</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.938645661653722e-06</v>
+        <v>5.914603590240355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.414351851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>155829.4112338687</v>
+        <v>195803.3625179848</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.6273478638843</v>
+        <v>123.925243942108</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.3685796606105</v>
+        <v>169.5599859574257</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.4035783737415</v>
+        <v>153.377418876631</v>
       </c>
       <c r="AD3" t="n">
-        <v>91627.34786388429</v>
+        <v>123925.243942108</v>
       </c>
       <c r="AE3" t="n">
-        <v>125368.5796606105</v>
+        <v>169559.9859574257</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.739123332987028e-06</v>
+        <v>7.116668593159995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.99074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>113403.5783737415</v>
+        <v>153377.418876631</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.88462141606328</v>
+        <v>124.1721386242108</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.6665456198952</v>
+        <v>169.8977981537033</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6232823186705</v>
+        <v>153.6829907510183</v>
       </c>
       <c r="AD4" t="n">
-        <v>99884.62141606328</v>
+        <v>124172.1386242108</v>
       </c>
       <c r="AE4" t="n">
-        <v>136666.5456198952</v>
+        <v>169897.7981537033</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726981867270303e-06</v>
+        <v>7.098435940901358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.013888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>123623.2823186705</v>
+        <v>153682.9907510183</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.89139865595932</v>
+        <v>131.3241666242807</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.6758185385117</v>
+        <v>179.6835183886006</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.6316702429489</v>
+        <v>162.5347755810448</v>
       </c>
       <c r="AD2" t="n">
-        <v>99891.39865595932</v>
+        <v>131324.1666242807</v>
       </c>
       <c r="AE2" t="n">
-        <v>136675.8185385117</v>
+        <v>179683.5183886006</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.578949052354055e-06</v>
+        <v>7.022948222343095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>123631.6702429489</v>
+        <v>162534.7755810448</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.8323046387638</v>
+        <v>118.4069701235558</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.7537429127123</v>
+        <v>162.0096402698273</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.3702277996794</v>
+        <v>146.5476675844779</v>
       </c>
       <c r="AD3" t="n">
-        <v>94832.3046387638</v>
+        <v>118406.9701235558</v>
       </c>
       <c r="AE3" t="n">
-        <v>129753.7429127123</v>
+        <v>162009.6402698273</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.856893180802312e-06</v>
+        <v>7.449244125721375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>117370.2277996794</v>
+        <v>146547.6675844779</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.60851104210742</v>
+        <v>122.1109592018804</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3428062900334</v>
+        <v>167.0776015352539</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.3802647774791</v>
+        <v>151.131949739662</v>
       </c>
       <c r="AD2" t="n">
-        <v>91608.51104210742</v>
+        <v>122110.9592018804</v>
       </c>
       <c r="AE2" t="n">
-        <v>125342.8062900334</v>
+        <v>167077.6015352539</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.869209573238002e-06</v>
+        <v>7.608043911245604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.332175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>113380.2647774791</v>
+        <v>151131.9497396621</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.41773166824647</v>
+        <v>121.9201798280195</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.081773534125</v>
+        <v>166.8165687793455</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.1441446214328</v>
+        <v>150.8958295836157</v>
       </c>
       <c r="AD3" t="n">
-        <v>91417.73166824647</v>
+        <v>121920.1798280195</v>
       </c>
       <c r="AE3" t="n">
-        <v>125081.773534125</v>
+        <v>166816.5687793455</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906731016825899e-06</v>
+        <v>7.666670426727501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>113144.1446214328</v>
+        <v>150895.8295836157</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.7436608687607</v>
+        <v>121.8254341593985</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8959683621355</v>
+        <v>166.6869335756544</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.785195241297</v>
+        <v>150.7785665818207</v>
       </c>
       <c r="AD2" t="n">
-        <v>92743.66086876069</v>
+        <v>121825.4341593985</v>
       </c>
       <c r="AE2" t="n">
-        <v>126895.9683621356</v>
+        <v>166686.9335756544</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.726722001959912e-06</v>
+        <v>7.70302603437204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>114785.195241297</v>
+        <v>150778.5665818207</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.3551991123547</v>
+        <v>194.670585107868</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.8273489793257</v>
+        <v>266.3568828045485</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.8017212873326</v>
+        <v>240.9361557439932</v>
       </c>
       <c r="AD2" t="n">
-        <v>153355.1991123547</v>
+        <v>194670.585107868</v>
       </c>
       <c r="AE2" t="n">
-        <v>209827.3489793257</v>
+        <v>266356.8828045485</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444232455138372e-06</v>
+        <v>5.088442916382104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>189801.7212873326</v>
+        <v>240936.1557439932</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.4159916657905</v>
+        <v>145.4341820220826</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.812519240601</v>
+        <v>198.9894639458099</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.1328682815467</v>
+        <v>179.9981887903449</v>
       </c>
       <c r="AD3" t="n">
-        <v>112415.9916657905</v>
+        <v>145434.1820220826</v>
       </c>
       <c r="AE3" t="n">
-        <v>153812.519240601</v>
+        <v>198989.4639458099</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.285986071984888e-06</v>
+        <v>6.332033552255603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.476851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>139132.8682815467</v>
+        <v>179998.1887903449</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.9763003278612</v>
+        <v>129.8679767540754</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.6332053360337</v>
+        <v>177.6910951656238</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.9250538092712</v>
+        <v>160.7325064340847</v>
       </c>
       <c r="AD4" t="n">
-        <v>104976.3003278612</v>
+        <v>129867.9767540755</v>
       </c>
       <c r="AE4" t="n">
-        <v>143633.2053360337</v>
+        <v>177691.0951656238</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.560902049900738e-06</v>
+        <v>6.738189140952641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>129925.0538092712</v>
+        <v>160732.5064340847</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.8316534424081</v>
+        <v>129.7233298686224</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.4352930859866</v>
+        <v>177.4931829155768</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.7460300265971</v>
+        <v>160.5534826514106</v>
       </c>
       <c r="AD5" t="n">
-        <v>104831.6534424081</v>
+        <v>129723.3298686224</v>
       </c>
       <c r="AE5" t="n">
-        <v>143435.2930859866</v>
+        <v>177493.1829155768</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.576578298490338e-06</v>
+        <v>6.761348929709695e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.002314814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>129746.030026597</v>
+        <v>160553.4826514106</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.2789140259051</v>
+        <v>233.0091690840094</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.3480046833558</v>
+        <v>318.8134247796324</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.5007565171718</v>
+        <v>288.3863189762109</v>
       </c>
       <c r="AD2" t="n">
-        <v>190278.9140259051</v>
+        <v>233009.1690840094</v>
       </c>
       <c r="AE2" t="n">
-        <v>260348.0046833558</v>
+        <v>318813.4247796324</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927066620345147e-06</v>
+        <v>4.250595452746573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>235500.7565171718</v>
+        <v>288386.3189762109</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.172609531566</v>
+        <v>172.2032895483715</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.0538601063213</v>
+        <v>235.6161378329353</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0108250365864</v>
+        <v>213.1292643275544</v>
       </c>
       <c r="AD3" t="n">
-        <v>138172.609531566</v>
+        <v>172203.2895483715</v>
       </c>
       <c r="AE3" t="n">
-        <v>189053.8601063213</v>
+        <v>235616.1378329353</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784539780116546e-06</v>
+        <v>5.495791407099935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>171010.8250365864</v>
+        <v>213129.2643275544</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.4997341295922</v>
+        <v>152.4450732918261</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.1365640753454</v>
+        <v>208.5820746797617</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.662477960136</v>
+        <v>188.6752942191652</v>
       </c>
       <c r="AD4" t="n">
-        <v>118499.7341295922</v>
+        <v>152445.0732918261</v>
       </c>
       <c r="AE4" t="n">
-        <v>162136.5640753454</v>
+        <v>208582.0746797617</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.15568089564758e-06</v>
+        <v>6.034751035500018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.430555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>146662.477960136</v>
+        <v>188675.2942191652</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.5189101506777</v>
+        <v>138.1059481813483</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.9533368520666</v>
+        <v>188.9626511060624</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.2602464578129</v>
+        <v>170.9283208952995</v>
       </c>
       <c r="AD5" t="n">
-        <v>112518.9101506777</v>
+        <v>138105.9481813483</v>
       </c>
       <c r="AE5" t="n">
-        <v>153953.3368520666</v>
+        <v>188962.6511060624</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.347096405541769e-06</v>
+        <v>6.312718708079149e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>139260.2464578128</v>
+        <v>170928.3208952995</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.9841545356263</v>
+        <v>136.5711925662969</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.8534165109153</v>
+        <v>186.862730764911</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.3607395667636</v>
+        <v>169.0288140042503</v>
       </c>
       <c r="AD6" t="n">
-        <v>110984.1545356263</v>
+        <v>136571.1925662969</v>
       </c>
       <c r="AE6" t="n">
-        <v>151853.4165109153</v>
+        <v>186862.730764911</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.391667501682774e-06</v>
+        <v>6.37744347288773e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>137360.7395667636</v>
+        <v>169028.8140042503</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.08338842275793</v>
+        <v>126.546133812353</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2020191736648</v>
+        <v>173.1460031033938</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3939668174829</v>
+        <v>156.6211915791957</v>
       </c>
       <c r="AD2" t="n">
-        <v>98083.38842275794</v>
+        <v>126546.133812353</v>
       </c>
       <c r="AE2" t="n">
-        <v>134202.0191736647</v>
+        <v>173146.0031033938</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340268911588164e-06</v>
+        <v>7.234969686554568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>121393.9668174829</v>
+        <v>156621.1915791957</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7909845344132</v>
+        <v>136.5611484376763</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.3796480918824</v>
+        <v>186.8489879450166</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6956957126319</v>
+        <v>169.0163827797984</v>
       </c>
       <c r="AD2" t="n">
-        <v>104790.9845344132</v>
+        <v>136561.1484376763</v>
       </c>
       <c r="AE2" t="n">
-        <v>143379.6480918824</v>
+        <v>186848.9879450166</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.391633097141218e-06</v>
+        <v>6.683655490712023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>129695.6957126319</v>
+        <v>169016.3827797984</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.69731931847056</v>
+        <v>120.5250317544689</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.3055382761265</v>
+        <v>164.9076656355255</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.6784833950775</v>
+        <v>149.1691094766789</v>
       </c>
       <c r="AD3" t="n">
-        <v>96697.31931847056</v>
+        <v>120525.0317544689</v>
       </c>
       <c r="AE3" t="n">
-        <v>132305.5382761265</v>
+        <v>164907.6656355255</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.799679967109722e-06</v>
+        <v>7.304664724089961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.08912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>119678.4833950775</v>
+        <v>149169.1094766789</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.5317600326524</v>
+        <v>172.2775249432362</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.9675568483095</v>
+        <v>235.7177099752235</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.7917058088097</v>
+        <v>213.2211425671401</v>
       </c>
       <c r="AD2" t="n">
-        <v>131531.7600326524</v>
+        <v>172277.5249432361</v>
       </c>
       <c r="AE2" t="n">
-        <v>179967.5568483095</v>
+        <v>235717.7099752235</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.779362124552453e-06</v>
+        <v>5.642250132323616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>162791.7058088097</v>
+        <v>213221.1425671401</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.382063526885</v>
+        <v>128.8808164945293</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.8201443290611</v>
+        <v>176.3404189480764</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.1895902036656</v>
+        <v>159.5107368590537</v>
       </c>
       <c r="AD3" t="n">
-        <v>104382.063526885</v>
+        <v>128880.8164945293</v>
       </c>
       <c r="AE3" t="n">
-        <v>142820.1443290611</v>
+        <v>176340.4189480764</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.562764864670922e-06</v>
+        <v>6.811800460772109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.175925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>129189.5902036656</v>
+        <v>159510.7368590537</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.18757475830571</v>
+        <v>125.7671185158584</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.5033509299094</v>
+        <v>172.0801200070011</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.3346100692695</v>
+        <v>155.6570348695461</v>
       </c>
       <c r="AD4" t="n">
-        <v>93187.57475830571</v>
+        <v>125767.1185158584</v>
       </c>
       <c r="AE4" t="n">
-        <v>127503.3509299094</v>
+        <v>172080.1200070011</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.680606386593229e-06</v>
+        <v>6.987727329049673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.996527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>115334.6100692695</v>
+        <v>155657.0348695461</v>
       </c>
     </row>
   </sheetData>
